--- a/fintech_biggest_countries_trend.xlsx
+++ b/fintech_biggest_countries_trend.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shoya\fintech\fintech-vc-funding\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27958244-271F-48EF-A44C-DB3669CBA32C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -55,8 +61,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,7 +125,2524 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Funded</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Fintech Companies by Country</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>USA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-747A-449B-AB15-E5ECE6824AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GBR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-747A-449B-AB15-E5ECE6824AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IND</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-747A-449B-AB15-E5ECE6824AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SGP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-747A-449B-AB15-E5ECE6824AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CAN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-747A-449B-AB15-E5ECE6824AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AUS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-747A-449B-AB15-E5ECE6824AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CHN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-747A-449B-AB15-E5ECE6824AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DEU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-747A-449B-AB15-E5ECE6824AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CHE</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-747A-449B-AB15-E5ECE6824AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>HKG</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-747A-449B-AB15-E5ECE6824AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ISR</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-747A-449B-AB15-E5ECE6824AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FRA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-747A-449B-AB15-E5ECE6824AC9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="478087128"/>
+        <c:axId val="478091720"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="478087128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Year of First Funding</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478091720"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="478091720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Companies</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="478087128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>187324</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>349250</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAE46034-E235-4E83-B261-02F72A4A52C0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -165,7 +2688,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -197,9 +2720,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -231,6 +2772,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -406,14 +2965,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P15" sqref="P15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,9 +3012,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>2005</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -492,9 +3053,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>2006</v>
       </c>
       <c r="B3">
         <v>12</v>
@@ -533,9 +3094,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>2007</v>
       </c>
       <c r="B4">
         <v>36</v>
@@ -574,9 +3135,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>2008</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -615,9 +3176,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>2009</v>
       </c>
       <c r="B6">
         <v>39</v>
@@ -656,9 +3217,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>2010</v>
       </c>
       <c r="B7">
         <v>46</v>
@@ -697,9 +3258,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>2011</v>
       </c>
       <c r="B8">
         <v>92</v>
@@ -738,9 +3299,9 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>2012</v>
       </c>
       <c r="B9">
         <v>97</v>
@@ -779,9 +3340,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>2013</v>
       </c>
       <c r="B10">
         <v>125</v>
@@ -820,9 +3381,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>2014</v>
       </c>
       <c r="B11">
         <v>184</v>
@@ -861,9 +3422,9 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
-        <v>10</v>
+        <v>2015</v>
       </c>
       <c r="B12">
         <v>172</v>
@@ -902,9 +3463,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
-        <v>11</v>
+        <v>2016</v>
       </c>
       <c r="B13">
         <v>163</v>
@@ -943,9 +3504,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
-        <v>12</v>
+        <v>2017</v>
       </c>
       <c r="B14">
         <v>135</v>
@@ -986,5 +3547,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>